--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntf5-Ntrk1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntf5-Ntrk1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,12 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Ntrk1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +543,10 @@
         <v>0.339264</v>
       </c>
       <c r="I2">
-        <v>0.1219822986449288</v>
+        <v>0.3269336956678857</v>
       </c>
       <c r="J2">
-        <v>0.1219822986449288</v>
+        <v>0.3269336956678857</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.05351466666666666</v>
+        <v>0.04067533333333333</v>
       </c>
       <c r="N2">
-        <v>0.160544</v>
+        <v>0.122026</v>
       </c>
       <c r="O2">
-        <v>0.4601248445175601</v>
+        <v>0.6477995434517174</v>
       </c>
       <c r="P2">
-        <v>0.4601248445175602</v>
+        <v>0.6477995434517174</v>
       </c>
       <c r="Q2">
-        <v>0.006051866624</v>
+        <v>0.004599892096</v>
       </c>
       <c r="R2">
-        <v>0.054466799616</v>
+        <v>0.041399028864</v>
       </c>
       <c r="S2">
-        <v>0.05612708619789244</v>
+        <v>0.2117874987926391</v>
       </c>
       <c r="T2">
-        <v>0.05612708619789245</v>
+        <v>0.2117874987926391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -608,10 +605,10 @@
         <v>0.339264</v>
       </c>
       <c r="I3">
-        <v>0.1219822986449288</v>
+        <v>0.3269336956678857</v>
       </c>
       <c r="J3">
-        <v>0.1219822986449288</v>
+        <v>0.3269336956678857</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,33 +617,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.04067533333333333</v>
+        <v>0.02211466666666667</v>
       </c>
       <c r="N3">
-        <v>0.122026</v>
+        <v>0.066344</v>
       </c>
       <c r="O3">
-        <v>0.3497308792424494</v>
+        <v>0.3522004565482826</v>
       </c>
       <c r="P3">
-        <v>0.3497308792424494</v>
+        <v>0.3522004565482827</v>
       </c>
       <c r="Q3">
-        <v>0.004599892096</v>
+        <v>0.002500903424</v>
       </c>
       <c r="R3">
-        <v>0.041399028864</v>
+        <v>0.022508130816</v>
       </c>
       <c r="S3">
-        <v>0.04266097655710599</v>
+        <v>0.1151461968752466</v>
       </c>
       <c r="T3">
-        <v>0.04266097655710598</v>
+        <v>0.1151461968752467</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.113088</v>
+        <v>0.084206</v>
       </c>
       <c r="H4">
-        <v>0.339264</v>
+        <v>0.252618</v>
       </c>
       <c r="I4">
-        <v>0.1219822986449288</v>
+        <v>0.2434367817753429</v>
       </c>
       <c r="J4">
-        <v>0.1219822986449288</v>
+        <v>0.243436781775343</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02211466666666667</v>
+        <v>0.04067533333333333</v>
       </c>
       <c r="N4">
-        <v>0.066344</v>
+        <v>0.122026</v>
       </c>
       <c r="O4">
-        <v>0.1901442762399904</v>
+        <v>0.6477995434517174</v>
       </c>
       <c r="P4">
-        <v>0.1901442762399904</v>
+        <v>0.6477995434517174</v>
       </c>
       <c r="Q4">
-        <v>0.002500903424</v>
+        <v>0.003425107118666667</v>
       </c>
       <c r="R4">
-        <v>0.022508130816</v>
+        <v>0.030825964068</v>
       </c>
       <c r="S4">
-        <v>0.02319423588993034</v>
+        <v>0.1576982360934225</v>
       </c>
       <c r="T4">
-        <v>0.02319423588993034</v>
+        <v>0.1576982360934225</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +714,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.343595</v>
+        <v>0.084206</v>
       </c>
       <c r="H5">
-        <v>1.030785</v>
+        <v>0.252618</v>
       </c>
       <c r="I5">
-        <v>0.3706185263061005</v>
+        <v>0.2434367817753429</v>
       </c>
       <c r="J5">
-        <v>0.3706185263061006</v>
+        <v>0.243436781775343</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,33 +741,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05351466666666666</v>
+        <v>0.02211466666666667</v>
       </c>
       <c r="N5">
-        <v>0.160544</v>
+        <v>0.066344</v>
       </c>
       <c r="O5">
-        <v>0.4601248445175601</v>
+        <v>0.3522004565482826</v>
       </c>
       <c r="P5">
-        <v>0.4601248445175602</v>
+        <v>0.3522004565482827</v>
       </c>
       <c r="Q5">
-        <v>0.01838737189333333</v>
+        <v>0.001862187621333333</v>
       </c>
       <c r="R5">
-        <v>0.16548634704</v>
+        <v>0.016759688592</v>
       </c>
       <c r="S5">
-        <v>0.1705307917919218</v>
+        <v>0.08573854568192044</v>
       </c>
       <c r="T5">
-        <v>0.1705307917919218</v>
+        <v>0.08573854568192046</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -782,22 +779,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.343595</v>
+        <v>0.08859233333333333</v>
       </c>
       <c r="H6">
-        <v>1.030785</v>
+        <v>0.265777</v>
       </c>
       <c r="I6">
-        <v>0.3706185263061005</v>
+        <v>0.2561175274521424</v>
       </c>
       <c r="J6">
-        <v>0.3706185263061006</v>
+        <v>0.2561175274521424</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,27 +809,27 @@
         <v>0.122026</v>
       </c>
       <c r="O6">
-        <v>0.3497308792424494</v>
+        <v>0.6477995434517174</v>
       </c>
       <c r="P6">
-        <v>0.3497308792424494</v>
+        <v>0.6477995434517174</v>
       </c>
       <c r="Q6">
-        <v>0.01397584115666667</v>
+        <v>0.003603522689111111</v>
       </c>
       <c r="R6">
-        <v>0.12578257041</v>
+        <v>0.032431704202</v>
       </c>
       <c r="S6">
-        <v>0.1296167430685734</v>
+        <v>0.1659128173534806</v>
       </c>
       <c r="T6">
-        <v>0.1296167430685734</v>
+        <v>0.1659128173534806</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,25 +838,25 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.343595</v>
+        <v>0.08859233333333333</v>
       </c>
       <c r="H7">
-        <v>1.030785</v>
+        <v>0.265777</v>
       </c>
       <c r="I7">
-        <v>0.3706185263061005</v>
+        <v>0.2561175274521424</v>
       </c>
       <c r="J7">
-        <v>0.3706185263061006</v>
+        <v>0.2561175274521424</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -874,27 +871,27 @@
         <v>0.066344</v>
       </c>
       <c r="O7">
-        <v>0.1901442762399904</v>
+        <v>0.3522004565482826</v>
       </c>
       <c r="P7">
-        <v>0.1901442762399904</v>
+        <v>0.3522004565482827</v>
       </c>
       <c r="Q7">
-        <v>0.007598488893333335</v>
+        <v>0.001959189920888889</v>
       </c>
       <c r="R7">
-        <v>0.06838640004</v>
+        <v>0.017632709288</v>
       </c>
       <c r="S7">
-        <v>0.07047099144560533</v>
+        <v>0.09020471009866188</v>
       </c>
       <c r="T7">
-        <v>0.07047099144560533</v>
+        <v>0.09020471009866189</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -912,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.244596</v>
+        <v>0.06001866666666666</v>
       </c>
       <c r="H8">
-        <v>0.733788</v>
+        <v>0.180056</v>
       </c>
       <c r="I8">
-        <v>0.2638333184719421</v>
+        <v>0.1735119951046289</v>
       </c>
       <c r="J8">
-        <v>0.2638333184719422</v>
+        <v>0.1735119951046289</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,33 +927,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.05351466666666666</v>
+        <v>0.04067533333333333</v>
       </c>
       <c r="N8">
-        <v>0.160544</v>
+        <v>0.122026</v>
       </c>
       <c r="O8">
-        <v>0.4601248445175601</v>
+        <v>0.6477995434517174</v>
       </c>
       <c r="P8">
-        <v>0.4601248445175602</v>
+        <v>0.6477995434517174</v>
       </c>
       <c r="Q8">
-        <v>0.013089473408</v>
+        <v>0.002441279272888889</v>
       </c>
       <c r="R8">
-        <v>0.117805260672</v>
+        <v>0.021971513456</v>
       </c>
       <c r="S8">
-        <v>0.1213962646404543</v>
+        <v>0.1124009912121752</v>
       </c>
       <c r="T8">
-        <v>0.1213962646404543</v>
+        <v>0.1124009912121752</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -974,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.244596</v>
+        <v>0.06001866666666666</v>
       </c>
       <c r="H9">
-        <v>0.733788</v>
+        <v>0.180056</v>
       </c>
       <c r="I9">
-        <v>0.2638333184719421</v>
+        <v>0.1735119951046289</v>
       </c>
       <c r="J9">
-        <v>0.2638333184719422</v>
+        <v>0.1735119951046289</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,276 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.04067533333333333</v>
+        <v>0.02211466666666667</v>
       </c>
       <c r="N9">
-        <v>0.122026</v>
+        <v>0.066344</v>
       </c>
       <c r="O9">
-        <v>0.3497308792424494</v>
+        <v>0.3522004565482826</v>
       </c>
       <c r="P9">
-        <v>0.3497308792424494</v>
+        <v>0.3522004565482827</v>
       </c>
       <c r="Q9">
-        <v>0.009949023832</v>
+        <v>0.001327292807111111</v>
       </c>
       <c r="R9">
-        <v>0.089541214488</v>
+        <v>0.011945635264</v>
       </c>
       <c r="S9">
-        <v>0.0922706584426455</v>
+        <v>0.06111100389245368</v>
       </c>
       <c r="T9">
-        <v>0.09227065844264551</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.244596</v>
-      </c>
-      <c r="H10">
-        <v>0.733788</v>
-      </c>
-      <c r="I10">
-        <v>0.2638333184719421</v>
-      </c>
-      <c r="J10">
-        <v>0.2638333184719422</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.02211466666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.066344</v>
-      </c>
-      <c r="O10">
-        <v>0.1901442762399904</v>
-      </c>
-      <c r="P10">
-        <v>0.1901442762399904</v>
-      </c>
-      <c r="Q10">
-        <v>0.005409159008</v>
-      </c>
-      <c r="R10">
-        <v>0.048682431072</v>
-      </c>
-      <c r="S10">
-        <v>0.05016639538884232</v>
-      </c>
-      <c r="T10">
-        <v>0.05016639538884233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.2258063333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.677419</v>
-      </c>
-      <c r="I11">
-        <v>0.2435658565770285</v>
-      </c>
-      <c r="J11">
-        <v>0.2435658565770285</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.05351466666666666</v>
-      </c>
-      <c r="N11">
-        <v>0.160544</v>
-      </c>
-      <c r="O11">
-        <v>0.4601248445175601</v>
-      </c>
-      <c r="P11">
-        <v>0.4601248445175602</v>
-      </c>
-      <c r="Q11">
-        <v>0.01208395065955555</v>
-      </c>
-      <c r="R11">
-        <v>0.108755555936</v>
-      </c>
-      <c r="S11">
-        <v>0.1120707018872916</v>
-      </c>
-      <c r="T11">
-        <v>0.1120707018872916</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.2258063333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.677419</v>
-      </c>
-      <c r="I12">
-        <v>0.2435658565770285</v>
-      </c>
-      <c r="J12">
-        <v>0.2435658565770285</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.04067533333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.122026</v>
-      </c>
-      <c r="O12">
-        <v>0.3497308792424494</v>
-      </c>
-      <c r="P12">
-        <v>0.3497308792424494</v>
-      </c>
-      <c r="Q12">
-        <v>0.009184747877111111</v>
-      </c>
-      <c r="R12">
-        <v>0.082662730894</v>
-      </c>
-      <c r="S12">
-        <v>0.08518250117412451</v>
-      </c>
-      <c r="T12">
-        <v>0.0851825011741245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.2258063333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.677419</v>
-      </c>
-      <c r="I13">
-        <v>0.2435658565770285</v>
-      </c>
-      <c r="J13">
-        <v>0.2435658565770285</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.02211466666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.066344</v>
-      </c>
-      <c r="O13">
-        <v>0.1901442762399904</v>
-      </c>
-      <c r="P13">
-        <v>0.1901442762399904</v>
-      </c>
-      <c r="Q13">
-        <v>0.004993631792888889</v>
-      </c>
-      <c r="R13">
-        <v>0.044942686136</v>
-      </c>
-      <c r="S13">
-        <v>0.04631265351561238</v>
-      </c>
-      <c r="T13">
-        <v>0.04631265351561238</v>
+        <v>0.0611110038924537</v>
       </c>
     </row>
   </sheetData>
